--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud computing.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe cloud computing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D3A25D-2575-4264-976B-6A20935389FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1086033-6388-4DE9-9DF1-DD6ED3EF72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="1290" windowWidth="16575" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shared responsibility model" sheetId="1" r:id="rId1"/>
     <sheet name="Define cloud models" sheetId="2" r:id="rId2"/>
+    <sheet name="consumption-based model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -317,6 +318,187 @@
         <a:xfrm>
           <a:off x="609600" y="190500"/>
           <a:ext cx="8990476" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>570438</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0271626C-6586-A63F-FD88-B1C1E48A054A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="8495238" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389562</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D2ED93-CB8C-F570-E958-851EFF3D1B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2095500"/>
+          <a:ext cx="7704762" cy="1571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AB519D-38D4-6D6E-50C1-CE991DA24AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1143000"/>
+          <a:ext cx="8447619" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50B800A-1F7C-55CF-C939-706E6B426219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="8400000" cy="1447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -608,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B1B200-1617-4748-B240-2FEDC0104E34}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -633,4 +815,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBC25BF-82CC-461B-AA3F-8D1CBF3BF2F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>